--- a/data/trans_camb/P37_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P37_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-4,77</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 5,53</t>
+          <t>-6,26; 6,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 4,2</t>
+          <t>-7,79; 4,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 2,36</t>
+          <t>-11,31; 2,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 5,68</t>
+          <t>-9,37; 5,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 3,8</t>
+          <t>-10,47; 1,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,53; -0,57</t>
+          <t>-4,27; 5,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,09</t>
+          <t>-7,13; 3,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 2,06</t>
+          <t>-5,49; 5,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -0,56</t>
+          <t>-10,61; 0,49</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 5,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 4,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,77; 2,49</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 2,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 1,25</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 1,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>-2,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>-5,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-7,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-10,08%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,03%</t>
+          <t>-2,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-8,03%</t>
+          <t>-7,98%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,76%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-3,46%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-6,81%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 9,47</t>
+          <t>-9,61; 11,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 6,97</t>
+          <t>-12,02; 8,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 4,2</t>
+          <t>-17,93; 4,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 9,56</t>
+          <t>-15,26; 10,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 6,53</t>
+          <t>-17,01; 2,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,22; -1,01</t>
+          <t>-6,84; 10,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 6,77</t>
+          <t>-11,25; 6,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 3,42</t>
+          <t>-8,8; 9,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -0,92</t>
+          <t>-16,59; 0,93</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 10,38</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 7,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 4,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 4,36</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; 2,26</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; 3,04</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>6,74</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-5,04</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 12,9</t>
+          <t>-0,32; 13,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 8,05</t>
+          <t>-6,09; 8,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 5,58</t>
+          <t>-8,26; 6,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 5,13</t>
+          <t>-3,66; 12,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 3,43</t>
+          <t>-4,47; 15,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 2,34</t>
+          <t>-8,54; 3,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 6,65</t>
+          <t>-9,68; 2,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 3,58</t>
+          <t>-15,39; -1,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 1,52</t>
+          <t>-1,73; 15,02</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 12,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 6,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,88; 3,79</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; -0,06</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 10,95</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 10,58</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>-3,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>-5,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-13,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,84%</t>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-7,87%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 21,25</t>
+          <t>-0,45; 22,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 13,41</t>
+          <t>-9,01; 14,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 9,16</t>
+          <t>-12,27; 10,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 8,41</t>
+          <t>-5,44; 20,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 5,82</t>
+          <t>-6,68; 25,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 3,7</t>
+          <t>-12,82; 6,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 10,71</t>
+          <t>-14,59; 3,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 5,84</t>
+          <t>-23,33; -2,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 2,25</t>
+          <t>-3,76; 28,72</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-9,69; 23,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 10,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 6,23</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,98; 0,09</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 19,75</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 18,67</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-5,29</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-7,9</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,32</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-5,22</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-6,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 9,1</t>
+          <t>-18,57; 9,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 17,28</t>
+          <t>-8,01; 19,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-21,93; 12,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,27; 7,88</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 8,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-18,72; 3,97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-17,02; 6,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 12,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-13,87; 3,89</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-8,59; 8,86</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-14,78; 3,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 9,24</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-12,7; 7,11</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>-6,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-7,64%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-11,87%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,99%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,02%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-7,69%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-0,22%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-8,85%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-3,98%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 14,97</t>
+          <t>-24,4; 15,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 27,27</t>
+          <t>-10,23; 32,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-28,86; 19,72</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-21,5; 13,67</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 15,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-26,15; 6,41</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-23,48; 10,58</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 20,4</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-18,96; 6,3</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 13,99</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-20,47; 5,37</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 15,43</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 11,08</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>-3,62</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>-1,34</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-6,04</t>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,66</t>
+          <t>-3,05; 5,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,56</t>
+          <t>-4,25; 4,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -0,73</t>
+          <t>-8,4; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,72</t>
+          <t>-8,56; 1,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 1,83</t>
+          <t>-7,09; 2,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,24; -2,92</t>
+          <t>-5,07; 2,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,81</t>
+          <t>-6,61; 1,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,61</t>
+          <t>-7,72; 0,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -2,84</t>
+          <t>-6,31; 2,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 5,64</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 3,13</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 1,5</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; -0,34</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 0,66</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,74</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>-3,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,11%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-9,47%</t>
+          <t>-3,71%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-5,25%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 9,11</t>
+          <t>-4,58; 9,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 7,38</t>
+          <t>-6,46; 7,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,54; -1,12</t>
+          <t>-12,62; 3,19</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 4,5</t>
+          <t>-13,36; 3,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,04</t>
+          <t>-11,36; 5,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -4,85</t>
+          <t>-7,77; 4,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,54</t>
+          <t>-10,17; 1,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 2,54</t>
+          <t>-12,05; 1,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -4,64</t>
+          <t>-10,42; 4,04</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 10,49</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 5,07</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 2,45</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; -0,56</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-9,93; 1,13</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 4,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
